--- a/Code/Results/Cases/Case_7_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.55180945446734</v>
+        <v>17.66299311274711</v>
       </c>
       <c r="C2">
-        <v>11.96564380794896</v>
+        <v>6.377277791956495</v>
       </c>
       <c r="D2">
-        <v>2.265366213836971</v>
+        <v>2.233061271327106</v>
       </c>
       <c r="E2">
-        <v>5.676147080448398</v>
+        <v>5.869436645288932</v>
       </c>
       <c r="F2">
-        <v>43.69846321120171</v>
+        <v>42.3755645054481</v>
       </c>
       <c r="G2">
-        <v>2.155660944211108</v>
+        <v>2.184915122733178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.960536134054122</v>
+        <v>6.28712556050673</v>
       </c>
       <c r="K2">
-        <v>19.04236113866315</v>
+        <v>14.1463905063472</v>
       </c>
       <c r="L2">
-        <v>6.613560465990109</v>
+        <v>6.345815287848398</v>
       </c>
       <c r="M2">
-        <v>14.48393847896566</v>
+        <v>12.22512325408961</v>
       </c>
       <c r="N2">
-        <v>17.07139395451124</v>
+        <v>19.30935002818139</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.36040284872435</v>
+        <v>16.92588326272655</v>
       </c>
       <c r="C3">
-        <v>11.10146991143587</v>
+        <v>5.939807838712426</v>
       </c>
       <c r="D3">
-        <v>2.273267430447418</v>
+        <v>2.257055218964969</v>
       </c>
       <c r="E3">
-        <v>5.662387810810075</v>
+        <v>5.885098299860918</v>
       </c>
       <c r="F3">
-        <v>42.73085112911678</v>
+        <v>41.77944840661777</v>
       </c>
       <c r="G3">
-        <v>2.166629562872677</v>
+        <v>2.193393832129556</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.997306691453521</v>
+        <v>6.323722609794578</v>
       </c>
       <c r="K3">
-        <v>18.08491367805467</v>
+        <v>13.59039347919537</v>
       </c>
       <c r="L3">
-        <v>6.568601460464906</v>
+        <v>6.318188514503907</v>
       </c>
       <c r="M3">
-        <v>14.06868599680702</v>
+        <v>11.99992868055997</v>
       </c>
       <c r="N3">
-        <v>17.23629944625092</v>
+        <v>19.41601046479516</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6159223858281</v>
+        <v>16.46917226006255</v>
       </c>
       <c r="C4">
-        <v>10.54462116130216</v>
+        <v>5.657279829745489</v>
       </c>
       <c r="D4">
-        <v>2.280557695307935</v>
+        <v>2.271384360633954</v>
       </c>
       <c r="E4">
-        <v>5.654469691092144</v>
+        <v>5.89601295405476</v>
       </c>
       <c r="F4">
-        <v>42.16137213064016</v>
+        <v>41.43371464565433</v>
       </c>
       <c r="G4">
-        <v>2.173526545016129</v>
+        <v>2.198746443886699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.020438773807848</v>
+        <v>6.347019542155988</v>
       </c>
       <c r="K4">
-        <v>17.48717054401193</v>
+        <v>13.24728773431625</v>
       </c>
       <c r="L4">
-        <v>6.544030985060006</v>
+        <v>6.303793118929802</v>
       </c>
       <c r="M4">
-        <v>13.81792393842468</v>
+        <v>11.86649293568244</v>
       </c>
       <c r="N4">
-        <v>17.34232072039741</v>
+        <v>19.48628401222451</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30961843400091</v>
+        <v>16.28227816960705</v>
       </c>
       <c r="C5">
-        <v>10.3110072300395</v>
+        <v>5.538608579889893</v>
       </c>
       <c r="D5">
-        <v>2.284085529988479</v>
+        <v>2.277131943233764</v>
       </c>
       <c r="E5">
-        <v>5.651364545872438</v>
+        <v>5.900784026762324</v>
       </c>
       <c r="F5">
-        <v>41.93546782640345</v>
+        <v>41.29787169922432</v>
       </c>
       <c r="G5">
-        <v>2.176380369775627</v>
+        <v>2.200965932317544</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.030011156930719</v>
+        <v>6.356724625037109</v>
       </c>
       <c r="K5">
-        <v>17.24137378396077</v>
+        <v>13.10722580778138</v>
       </c>
       <c r="L5">
-        <v>6.534767163517024</v>
+        <v>6.298563173906814</v>
       </c>
       <c r="M5">
-        <v>13.71688079748636</v>
+        <v>11.81336417361754</v>
       </c>
       <c r="N5">
-        <v>17.38669765039777</v>
+        <v>19.51609655238171</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.25859156562118</v>
+        <v>16.251205489729</v>
       </c>
       <c r="C6">
-        <v>10.27180896702463</v>
+        <v>5.518688507278552</v>
       </c>
       <c r="D6">
-        <v>2.284703407845067</v>
+        <v>2.278081062047993</v>
       </c>
       <c r="E6">
-        <v>5.650855957134623</v>
+        <v>5.901595694132329</v>
       </c>
       <c r="F6">
-        <v>41.89832781963358</v>
+        <v>41.27561815309802</v>
       </c>
       <c r="G6">
-        <v>2.176856925877789</v>
+        <v>2.201336826084742</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.031609632233641</v>
+        <v>6.358349017759794</v>
       </c>
       <c r="K6">
-        <v>17.20043481952365</v>
+        <v>13.0839598515222</v>
       </c>
       <c r="L6">
-        <v>6.533273724956707</v>
+        <v>6.297732897966893</v>
       </c>
       <c r="M6">
-        <v>13.70017443931693</v>
+        <v>11.80461841690971</v>
       </c>
       <c r="N6">
-        <v>17.39413650449283</v>
+        <v>19.52111714236412</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61180280111266</v>
+        <v>16.46665454049934</v>
       </c>
       <c r="C7">
-        <v>10.54149778207857</v>
+        <v>5.655693765049104</v>
       </c>
       <c r="D7">
-        <v>2.280603088688089</v>
+        <v>2.271462233242356</v>
       </c>
       <c r="E7">
-        <v>5.654427336603121</v>
+        <v>5.896075993612627</v>
       </c>
       <c r="F7">
-        <v>42.15830059672373</v>
+        <v>41.43186226400725</v>
       </c>
       <c r="G7">
-        <v>2.173564854458312</v>
+        <v>2.198776220019814</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.02056727157385</v>
+        <v>6.347149567666696</v>
       </c>
       <c r="K7">
-        <v>17.48386420013105</v>
+        <v>13.24539953109495</v>
       </c>
       <c r="L7">
-        <v>6.543903036663002</v>
+        <v>6.303720022243738</v>
       </c>
       <c r="M7">
-        <v>13.81655648201646</v>
+        <v>11.8657713312295</v>
       </c>
       <c r="N7">
-        <v>17.34291448878006</v>
+        <v>19.48668134949079</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.14387956025827</v>
+        <v>17.4098369290091</v>
       </c>
       <c r="C8">
-        <v>11.67306308748494</v>
+        <v>6.229302963447423</v>
       </c>
       <c r="D8">
-        <v>2.267549028211153</v>
+        <v>2.241424140301986</v>
       </c>
       <c r="E8">
-        <v>5.671285429375985</v>
+        <v>5.874565309802147</v>
       </c>
       <c r="F8">
-        <v>43.35969666832848</v>
+        <v>42.16578277174631</v>
       </c>
       <c r="G8">
-        <v>2.159410798195599</v>
+        <v>2.187809000852423</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.973103438335458</v>
+        <v>6.299574992118032</v>
       </c>
       <c r="K8">
-        <v>18.71442511355566</v>
+        <v>13.95514695884138</v>
       </c>
       <c r="L8">
-        <v>6.59742020378994</v>
+        <v>6.335751124913235</v>
       </c>
       <c r="M8">
-        <v>14.33993683375686</v>
+        <v>12.14649206161819</v>
       </c>
       <c r="N8">
-        <v>17.12724638580194</v>
+        <v>19.34511650892502</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.03448814447231</v>
+        <v>19.21716431130904</v>
       </c>
       <c r="C9">
-        <v>13.68865864913133</v>
+        <v>7.245610620743697</v>
       </c>
       <c r="D9">
-        <v>2.264083083720847</v>
+        <v>2.178844958098295</v>
       </c>
       <c r="E9">
-        <v>5.709145132842427</v>
+        <v>5.842842230150507</v>
       </c>
       <c r="F9">
-        <v>45.91301495898198</v>
+        <v>43.76822890184865</v>
       </c>
       <c r="G9">
-        <v>2.132820060287597</v>
+        <v>2.167399044228428</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.884117015263672</v>
+        <v>6.212662713449615</v>
       </c>
       <c r="K9">
-        <v>21.04039403859521</v>
+        <v>15.32614193967956</v>
       </c>
       <c r="L9">
-        <v>6.727099239833646</v>
+        <v>6.419350642227753</v>
       </c>
       <c r="M9">
-        <v>15.39629110621249</v>
+        <v>12.73394673083556</v>
       </c>
       <c r="N9">
-        <v>16.74357434843492</v>
+        <v>19.1068218137744</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.07921598914917</v>
+        <v>20.50897283210192</v>
       </c>
       <c r="C10">
-        <v>15.05307344380962</v>
+        <v>7.929021933490789</v>
       </c>
       <c r="D10">
-        <v>2.456997677884588</v>
+        <v>2.129908483194729</v>
       </c>
       <c r="E10">
-        <v>5.74083061739751</v>
+        <v>5.826151891027325</v>
       </c>
       <c r="F10">
-        <v>47.91334767076804</v>
+        <v>45.04829350190135</v>
       </c>
       <c r="G10">
-        <v>2.11380629363661</v>
+        <v>2.152971763318944</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.820754905579424</v>
+        <v>6.152440310272518</v>
       </c>
       <c r="K10">
-        <v>22.68842296346442</v>
+        <v>16.31289273102385</v>
       </c>
       <c r="L10">
-        <v>6.838407323055816</v>
+        <v>6.494017336031963</v>
       </c>
       <c r="M10">
-        <v>16.18716195885908</v>
+        <v>13.18631974838105</v>
       </c>
       <c r="N10">
-        <v>16.48797388934047</v>
+        <v>18.95780793406699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.99162496441841</v>
+        <v>21.08735567721481</v>
       </c>
       <c r="C11">
-        <v>15.65042179396481</v>
+        <v>8.226891971927129</v>
       </c>
       <c r="D11">
-        <v>2.551560758027977</v>
+        <v>2.106826583423496</v>
       </c>
       <c r="E11">
-        <v>5.756333757933898</v>
+        <v>5.820055533137233</v>
       </c>
       <c r="F11">
-        <v>48.85186178590428</v>
+        <v>45.65371898117188</v>
       </c>
       <c r="G11">
-        <v>2.105222224434939</v>
+        <v>2.146507198071711</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.792248745004271</v>
+        <v>6.125770912836064</v>
       </c>
       <c r="K11">
-        <v>23.42444586396428</v>
+        <v>16.75619067154943</v>
       </c>
       <c r="L11">
-        <v>6.892755108906343</v>
+        <v>6.530987868583027</v>
       </c>
       <c r="M11">
-        <v>16.54974756087319</v>
+        <v>13.39630873721683</v>
       </c>
       <c r="N11">
-        <v>16.37806121636102</v>
+        <v>18.89620829330849</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.33461151730976</v>
+        <v>21.3049633863048</v>
       </c>
       <c r="C12">
-        <v>15.87344871320646</v>
+        <v>8.337879712352013</v>
       </c>
       <c r="D12">
-        <v>2.587294772197382</v>
+        <v>2.097951844561126</v>
       </c>
       <c r="E12">
-        <v>5.762385393399322</v>
+        <v>5.817967727085348</v>
       </c>
       <c r="F12">
-        <v>49.21153842603299</v>
+        <v>45.88637579023471</v>
       </c>
       <c r="G12">
-        <v>2.101976544363519</v>
+        <v>2.14407115995129</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.781488803839515</v>
+        <v>6.115770881200542</v>
       </c>
       <c r="K12">
-        <v>23.701221869649</v>
+        <v>16.9231913844611</v>
       </c>
       <c r="L12">
-        <v>6.913890303316819</v>
+        <v>6.54543034658296</v>
       </c>
       <c r="M12">
-        <v>16.68744620704038</v>
+        <v>13.47640927942845</v>
       </c>
       <c r="N12">
-        <v>16.33742299491393</v>
+        <v>18.87382251978228</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.26085426393314</v>
+        <v>21.25816146461305</v>
       </c>
       <c r="C13">
-        <v>15.82555404387831</v>
+        <v>8.31405592279066</v>
       </c>
       <c r="D13">
-        <v>2.579601236276223</v>
+        <v>2.099869416888843</v>
       </c>
       <c r="E13">
-        <v>5.761073592829975</v>
+        <v>5.81840745997374</v>
       </c>
       <c r="F13">
-        <v>49.13388175367228</v>
+        <v>45.83611668603811</v>
       </c>
       <c r="G13">
-        <v>2.102675418140154</v>
+        <v>2.144595310128838</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.783804792700178</v>
+        <v>6.117920248925913</v>
       </c>
       <c r="K13">
-        <v>23.64169848156209</v>
+        <v>16.88726408879986</v>
       </c>
       <c r="L13">
-        <v>6.909313421519639</v>
+        <v>6.542300043788124</v>
       </c>
       <c r="M13">
-        <v>16.65777265082237</v>
+        <v>13.45913258232345</v>
       </c>
       <c r="N13">
-        <v>16.34613020962284</v>
+        <v>18.87860098862408</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.01989283521466</v>
+        <v>21.10528706445854</v>
       </c>
       <c r="C14">
-        <v>15.66883290113647</v>
+        <v>8.236058880017396</v>
       </c>
       <c r="D14">
-        <v>2.554501794222176</v>
+        <v>2.106099239232835</v>
       </c>
       <c r="E14">
-        <v>5.756827851488411</v>
+        <v>5.819879309696956</v>
       </c>
       <c r="F14">
-        <v>48.88136556801877</v>
+        <v>45.67279129042544</v>
       </c>
       <c r="G14">
-        <v>2.104955129418014</v>
+        <v>2.146306557586062</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.791362889281895</v>
+        <v>6.124946250209582</v>
       </c>
       <c r="K14">
-        <v>23.44725492622118</v>
+        <v>16.76994756666445</v>
       </c>
       <c r="L14">
-        <v>6.89448266445854</v>
+        <v>6.53216712816753</v>
       </c>
       <c r="M14">
-        <v>16.56106815698091</v>
+        <v>13.40288709169327</v>
       </c>
       <c r="N14">
-        <v>16.3746977429832</v>
+        <v>18.89434743798557</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.87197043787891</v>
+        <v>21.01146119207568</v>
       </c>
       <c r="C15">
-        <v>15.57242875405837</v>
+        <v>8.188049784920718</v>
       </c>
       <c r="D15">
-        <v>2.53911957045502</v>
+        <v>2.10989721355146</v>
       </c>
       <c r="E15">
-        <v>5.754251557125547</v>
+        <v>5.820809784818583</v>
       </c>
       <c r="F15">
-        <v>48.72725594665999</v>
+        <v>45.57319429644806</v>
       </c>
       <c r="G15">
-        <v>2.106352016765314</v>
+        <v>2.147356233600106</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.795996618224367</v>
+        <v>6.129262618623089</v>
       </c>
       <c r="K15">
-        <v>23.3279017135949</v>
+        <v>16.69797347786181</v>
       </c>
       <c r="L15">
-        <v>6.885471323133125</v>
+        <v>6.526018379878412</v>
       </c>
       <c r="M15">
-        <v>16.50188547426889</v>
+        <v>13.36851038404413</v>
       </c>
       <c r="N15">
-        <v>16.39232647674586</v>
+        <v>18.90411670370495</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.01923177647792</v>
+        <v>20.47098001886355</v>
       </c>
       <c r="C16">
-        <v>15.01358067249959</v>
+        <v>7.909298721032421</v>
       </c>
       <c r="D16">
-        <v>2.450804271830142</v>
+        <v>2.131399083758796</v>
       </c>
       <c r="E16">
-        <v>5.739841367245219</v>
+        <v>5.826580875318371</v>
       </c>
       <c r="F16">
-        <v>47.85260184696454</v>
+        <v>45.00919846483743</v>
       </c>
       <c r="G16">
-        <v>2.114368227668768</v>
+        <v>2.153396035256353</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.822623332094364</v>
+        <v>6.154197383049471</v>
       </c>
       <c r="K16">
-        <v>22.6400480035753</v>
+        <v>16.28380382138068</v>
       </c>
       <c r="L16">
-        <v>6.834932016650619</v>
+        <v>6.491662564691156</v>
       </c>
       <c r="M16">
-        <v>16.16352143989063</v>
+        <v>13.17267901786968</v>
       </c>
       <c r="N16">
-        <v>16.49529054543586</v>
+        <v>18.96196235063687</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.49155849329681</v>
+        <v>20.13697083364114</v>
       </c>
       <c r="C17">
-        <v>14.66489074868924</v>
+        <v>7.735002861801468</v>
       </c>
       <c r="D17">
-        <v>2.396434433229519</v>
+        <v>2.144368622765416</v>
       </c>
       <c r="E17">
-        <v>5.731296380230604</v>
+        <v>5.830508268572699</v>
       </c>
       <c r="F17">
-        <v>47.32345039041365</v>
+        <v>44.66917259373776</v>
       </c>
       <c r="G17">
-        <v>2.119299638963988</v>
+        <v>2.157124971348091</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.839031878036725</v>
+        <v>6.169676358599689</v>
       </c>
       <c r="K17">
-        <v>22.21457149179095</v>
+        <v>16.02824131893622</v>
       </c>
       <c r="L17">
-        <v>6.804892933823552</v>
+        <v>6.471363160193127</v>
       </c>
       <c r="M17">
-        <v>15.95665299418337</v>
+        <v>13.05360162921884</v>
       </c>
       <c r="N17">
-        <v>16.56013015931003</v>
+        <v>18.99906805835626</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.18637837466402</v>
+        <v>19.94398801105017</v>
       </c>
       <c r="C18">
-        <v>14.46212563031902</v>
+        <v>7.633523190555458</v>
       </c>
       <c r="D18">
-        <v>2.365075929108504</v>
+        <v>2.151752185183145</v>
       </c>
       <c r="E18">
-        <v>5.726482409208454</v>
+        <v>5.832907659611431</v>
       </c>
       <c r="F18">
-        <v>47.02177036841272</v>
+        <v>44.47576971251909</v>
       </c>
       <c r="G18">
-        <v>2.122142509256269</v>
+        <v>2.159279169466583</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.848500253104254</v>
+        <v>6.178648138587888</v>
       </c>
       <c r="K18">
-        <v>21.96855665183224</v>
+        <v>15.88072556002962</v>
       </c>
       <c r="L18">
-        <v>6.787963368000933</v>
+        <v>6.459969598193725</v>
       </c>
       <c r="M18">
-        <v>15.83793185809649</v>
+        <v>12.98550799369768</v>
       </c>
       <c r="N18">
-        <v>16.59801819474521</v>
+        <v>19.02098931447503</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.08276189119088</v>
+        <v>19.87850099273479</v>
       </c>
       <c r="C19">
-        <v>14.39308852112159</v>
+        <v>7.5989509615125</v>
       </c>
       <c r="D19">
-        <v>2.354442195257384</v>
+        <v>2.15423951763758</v>
       </c>
       <c r="E19">
-        <v>5.724869123006043</v>
+        <v>5.833744014320212</v>
       </c>
       <c r="F19">
-        <v>46.92008150409715</v>
+        <v>44.41065774976907</v>
       </c>
       <c r="G19">
-        <v>2.123106292478453</v>
+        <v>2.160010224629827</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.851711654536659</v>
+        <v>6.181697781067238</v>
       </c>
       <c r="K19">
-        <v>21.88503843175603</v>
+        <v>15.83069180742689</v>
       </c>
       <c r="L19">
-        <v>6.782290500854014</v>
+        <v>6.456160076834183</v>
       </c>
       <c r="M19">
-        <v>15.79778094704847</v>
+        <v>12.96252152865902</v>
       </c>
       <c r="N19">
-        <v>16.61094654962994</v>
+        <v>19.02850946290825</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.5479037136789</v>
+        <v>20.17261736843994</v>
       </c>
       <c r="C20">
-        <v>14.70223666544769</v>
+        <v>7.753683744961215</v>
       </c>
       <c r="D20">
-        <v>2.402230790462993</v>
+        <v>2.142995989072898</v>
       </c>
       <c r="E20">
-        <v>5.732195403112759</v>
+        <v>5.830075615146176</v>
       </c>
       <c r="F20">
-        <v>47.3795016372536</v>
+        <v>44.70514376740706</v>
       </c>
       <c r="G20">
-        <v>2.118774044706486</v>
+        <v>2.156727060915116</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.837282067450897</v>
+        <v>6.168021524093045</v>
       </c>
       <c r="K20">
-        <v>22.25999789116065</v>
+        <v>16.05550105381517</v>
       </c>
       <c r="L20">
-        <v>6.80805447292588</v>
+        <v>6.473494793950294</v>
       </c>
       <c r="M20">
-        <v>15.97864729981734</v>
+        <v>13.0662367596322</v>
       </c>
       <c r="N20">
-        <v>16.5531659345363</v>
+        <v>18.99505781336831</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.090736958467</v>
+        <v>21.15022881825407</v>
       </c>
       <c r="C21">
-        <v>15.7149503599196</v>
+        <v>8.259017075695201</v>
       </c>
       <c r="D21">
-        <v>2.561875690917959</v>
+        <v>2.104273165674464</v>
       </c>
       <c r="E21">
-        <v>5.758069806685227</v>
+        <v>5.819440953046969</v>
       </c>
       <c r="F21">
-        <v>48.95541779076324</v>
+        <v>45.72067113113707</v>
       </c>
       <c r="G21">
-        <v>2.104285427891728</v>
+        <v>2.145803616961194</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.789142043986335</v>
+        <v>6.122879898443665</v>
       </c>
       <c r="K21">
-        <v>23.50441987977127</v>
+        <v>16.80443017878623</v>
       </c>
       <c r="L21">
-        <v>6.898823578519298</v>
+        <v>6.535131313582299</v>
       </c>
       <c r="M21">
-        <v>16.58946183790656</v>
+        <v>13.41939209799909</v>
       </c>
       <c r="N21">
-        <v>16.36627947321164</v>
+        <v>18.88969636066308</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08442290856918</v>
+        <v>21.78090229038096</v>
       </c>
       <c r="C22">
-        <v>16.35840474696738</v>
+        <v>8.5787695263034</v>
       </c>
       <c r="D22">
-        <v>2.665805996596677</v>
+        <v>2.078175173900994</v>
       </c>
       <c r="E22">
-        <v>5.776048825392743</v>
+        <v>5.813780332492273</v>
       </c>
       <c r="F22">
-        <v>50.01045415447548</v>
+        <v>46.40421194730132</v>
       </c>
       <c r="G22">
-        <v>2.094842462955168</v>
+        <v>2.13873300556832</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.757876160757899</v>
+        <v>6.0939520413533</v>
       </c>
       <c r="K22">
-        <v>24.30646555609779</v>
+        <v>17.28883554788085</v>
       </c>
       <c r="L22">
-        <v>6.961392383694674</v>
+        <v>6.577999204538735</v>
       </c>
       <c r="M22">
-        <v>16.99098206465704</v>
+        <v>13.65358786961496</v>
       </c>
       <c r="N22">
-        <v>16.24991068677013</v>
+        <v>18.82634733134686</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.55538713860208</v>
+        <v>21.44507320406118</v>
       </c>
       <c r="C23">
-        <v>16.01660084281172</v>
+        <v>8.409051298736179</v>
       </c>
       <c r="D23">
-        <v>2.61035439179466</v>
+        <v>2.09218222033691</v>
       </c>
       <c r="E23">
-        <v>5.766346310454592</v>
+        <v>5.816681493407949</v>
       </c>
       <c r="F23">
-        <v>49.44499194287955</v>
+        <v>46.03755092824303</v>
       </c>
       <c r="G23">
-        <v>2.099881585639818</v>
+        <v>2.142501241505213</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.774549322080558</v>
+        <v>6.109340654158346</v>
       </c>
       <c r="K23">
-        <v>23.87940571082428</v>
+        <v>17.03077723940948</v>
       </c>
       <c r="L23">
-        <v>6.927693593833792</v>
+        <v>6.554879629649333</v>
       </c>
       <c r="M23">
-        <v>16.77646787038329</v>
+        <v>13.52828876087004</v>
       </c>
       <c r="N23">
-        <v>16.31146487178913</v>
+        <v>18.85963533804775</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52243569025527</v>
+        <v>20.15650454280219</v>
       </c>
       <c r="C24">
-        <v>14.68535974946252</v>
+        <v>7.745242092636144</v>
       </c>
       <c r="D24">
-        <v>2.3996105743673</v>
+        <v>2.143616782314419</v>
       </c>
       <c r="E24">
-        <v>5.731788649362307</v>
+        <v>5.830270777497025</v>
       </c>
       <c r="F24">
-        <v>47.35415298133624</v>
+        <v>44.68887471835588</v>
       </c>
       <c r="G24">
-        <v>2.119011641442408</v>
+        <v>2.156906923716532</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.838073047351284</v>
+        <v>6.168769447898713</v>
       </c>
       <c r="K24">
-        <v>22.23946498649245</v>
+        <v>16.04317875857286</v>
       </c>
       <c r="L24">
-        <v>6.806624082674806</v>
+        <v>6.472530220833203</v>
       </c>
       <c r="M24">
-        <v>15.96870301820445</v>
+        <v>13.06052327683659</v>
       </c>
       <c r="N24">
-        <v>16.55631256285135</v>
+        <v>18.99686901527021</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.26593709565295</v>
+        <v>18.73394963604611</v>
       </c>
       <c r="C25">
-        <v>13.16443201651298</v>
+        <v>6.982007378595882</v>
       </c>
       <c r="D25">
-        <v>2.262237181511992</v>
+        <v>2.196238286846334</v>
       </c>
       <c r="E25">
-        <v>5.698298964583529</v>
+        <v>5.850280929712395</v>
       </c>
       <c r="F25">
-        <v>45.20080463238765</v>
+        <v>43.31691949184269</v>
       </c>
       <c r="G25">
-        <v>2.139907045893308</v>
+        <v>2.172812985975975</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.907798966255347</v>
+        <v>6.235517324040642</v>
       </c>
       <c r="K25">
-        <v>20.42149636117022</v>
+        <v>14.95838190467312</v>
       </c>
       <c r="L25">
-        <v>6.689274312659332</v>
+        <v>6.394450199165584</v>
       </c>
       <c r="M25">
-        <v>15.10772478298492</v>
+        <v>12.57125641387548</v>
       </c>
       <c r="N25">
-        <v>16.84294714335389</v>
+        <v>19.16687539898666</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.66299311274711</v>
+        <v>13.5651004610252</v>
       </c>
       <c r="C2">
-        <v>6.377277791956495</v>
+        <v>6.357807141743225</v>
       </c>
       <c r="D2">
-        <v>2.233061271327106</v>
+        <v>4.023648566367617</v>
       </c>
       <c r="E2">
-        <v>5.869436645288932</v>
+        <v>6.67294146657272</v>
       </c>
       <c r="F2">
-        <v>42.3755645054481</v>
+        <v>27.92117047132459</v>
       </c>
       <c r="G2">
-        <v>2.184915122733178</v>
+        <v>35.49807665822884</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.694883158049171</v>
       </c>
       <c r="J2">
-        <v>6.28712556050673</v>
+        <v>12.28685534764865</v>
       </c>
       <c r="K2">
-        <v>14.1463905063472</v>
+        <v>19.74293743083525</v>
       </c>
       <c r="L2">
-        <v>6.345815287848398</v>
+        <v>5.75933194845032</v>
       </c>
       <c r="M2">
-        <v>12.22512325408961</v>
+        <v>10.88656055369686</v>
       </c>
       <c r="N2">
-        <v>19.30935002818139</v>
+        <v>6.531529996932795</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.3019393411159</v>
+      </c>
+      <c r="P2">
+        <v>14.71313056284597</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92588326272655</v>
+        <v>12.78388617042598</v>
       </c>
       <c r="C3">
-        <v>5.939807838712426</v>
+        <v>6.018100036951203</v>
       </c>
       <c r="D3">
-        <v>2.257055218964969</v>
+        <v>3.882179059944055</v>
       </c>
       <c r="E3">
-        <v>5.885098299860918</v>
+        <v>6.557265059645923</v>
       </c>
       <c r="F3">
-        <v>41.77944840661777</v>
+        <v>27.5973486015709</v>
       </c>
       <c r="G3">
-        <v>2.193393832129556</v>
+        <v>35.00613816223606</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.92718220396474</v>
       </c>
       <c r="J3">
-        <v>6.323722609794578</v>
+        <v>12.27678096569746</v>
       </c>
       <c r="K3">
-        <v>13.59039347919537</v>
+        <v>19.72738057531717</v>
       </c>
       <c r="L3">
-        <v>6.318188514503907</v>
+        <v>5.716150356340292</v>
       </c>
       <c r="M3">
-        <v>11.99992868055997</v>
+        <v>10.28977523009542</v>
       </c>
       <c r="N3">
-        <v>19.41601046479516</v>
+        <v>6.383801377938249</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.967040021309179</v>
+      </c>
+      <c r="P3">
+        <v>14.8748496473576</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.46917226006255</v>
+        <v>12.28221000592228</v>
       </c>
       <c r="C4">
-        <v>5.657279829745489</v>
+        <v>5.799635858797014</v>
       </c>
       <c r="D4">
-        <v>2.271384360633954</v>
+        <v>3.792960198201679</v>
       </c>
       <c r="E4">
-        <v>5.89601295405476</v>
+        <v>6.484562250698979</v>
       </c>
       <c r="F4">
-        <v>41.43371464565433</v>
+        <v>27.4089586033179</v>
       </c>
       <c r="G4">
-        <v>2.198746443886699</v>
+        <v>34.72012332181823</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>4.074804984025508</v>
       </c>
       <c r="J4">
-        <v>6.347019542155988</v>
+        <v>12.27521372282265</v>
       </c>
       <c r="K4">
-        <v>13.24728773431625</v>
+        <v>19.72565492207119</v>
       </c>
       <c r="L4">
-        <v>6.303793118929802</v>
+        <v>5.688712028090864</v>
       </c>
       <c r="M4">
-        <v>11.86649293568244</v>
+        <v>9.908075332935095</v>
       </c>
       <c r="N4">
-        <v>19.48628401222451</v>
+        <v>6.291292994846875</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.757210525034568</v>
+      </c>
+      <c r="P4">
+        <v>14.97641031658554</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.28227816960705</v>
+        <v>12.07239625862932</v>
       </c>
       <c r="C5">
-        <v>5.538608579889893</v>
+        <v>5.708155080090934</v>
       </c>
       <c r="D5">
-        <v>2.277131943233764</v>
+        <v>3.756049939702395</v>
       </c>
       <c r="E5">
-        <v>5.900784026762324</v>
+        <v>6.454516449469322</v>
       </c>
       <c r="F5">
-        <v>41.29787169922432</v>
+        <v>27.33481684403887</v>
       </c>
       <c r="G5">
-        <v>2.200965932317544</v>
+        <v>34.60760838553627</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>4.136237181823881</v>
       </c>
       <c r="J5">
-        <v>6.356724625037109</v>
+        <v>12.27570933166748</v>
       </c>
       <c r="K5">
-        <v>13.10722580778138</v>
+        <v>19.72686919284347</v>
       </c>
       <c r="L5">
-        <v>6.298563173906814</v>
+        <v>5.677293999656158</v>
       </c>
       <c r="M5">
-        <v>11.81336417361754</v>
+        <v>9.74883806722351</v>
       </c>
       <c r="N5">
-        <v>19.51609655238171</v>
+        <v>6.253170581471733</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.670754656948775</v>
+      </c>
+      <c r="P5">
+        <v>15.0183784056999</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.251205489729</v>
+        <v>12.03723742422903</v>
       </c>
       <c r="C6">
-        <v>5.518688507278552</v>
+        <v>5.692817565883622</v>
       </c>
       <c r="D6">
-        <v>2.278081062047993</v>
+        <v>3.74988887047687</v>
       </c>
       <c r="E6">
-        <v>5.901595694132329</v>
+        <v>6.449502168692339</v>
       </c>
       <c r="F6">
-        <v>41.27561815309802</v>
+        <v>27.32266443484461</v>
       </c>
       <c r="G6">
-        <v>2.201336826084742</v>
+        <v>34.58916924156246</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>4.146515510323519</v>
       </c>
       <c r="J6">
-        <v>6.358349017759794</v>
+        <v>12.27585934246086</v>
       </c>
       <c r="K6">
-        <v>13.0839598515222</v>
+        <v>19.72718515671853</v>
       </c>
       <c r="L6">
-        <v>6.297732897966893</v>
+        <v>5.675383630297825</v>
       </c>
       <c r="M6">
-        <v>11.80461841690971</v>
+        <v>9.722178832857182</v>
       </c>
       <c r="N6">
-        <v>19.52111714236412</v>
+        <v>6.246815617553913</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.656344751550137</v>
+      </c>
+      <c r="P6">
+        <v>15.02538262392255</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.46665454049934</v>
+        <v>12.27940191979359</v>
       </c>
       <c r="C7">
-        <v>5.655693765049104</v>
+        <v>5.798412009949465</v>
       </c>
       <c r="D7">
-        <v>2.271462233242356</v>
+        <v>3.792464596524646</v>
       </c>
       <c r="E7">
-        <v>5.896075993612627</v>
+        <v>6.484158734007813</v>
       </c>
       <c r="F7">
-        <v>41.43186226400725</v>
+        <v>27.40794805692971</v>
       </c>
       <c r="G7">
-        <v>2.198776220019814</v>
+        <v>34.71858955454635</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>4.075628292984334</v>
       </c>
       <c r="J7">
-        <v>6.347149567666696</v>
+        <v>12.27521584991505</v>
       </c>
       <c r="K7">
-        <v>13.24539953109495</v>
+        <v>19.72566360100312</v>
       </c>
       <c r="L7">
-        <v>6.303720022243738</v>
+        <v>5.688559004318316</v>
       </c>
       <c r="M7">
-        <v>11.8657713312295</v>
+        <v>9.905942531277411</v>
       </c>
       <c r="N7">
-        <v>19.48668134949079</v>
+        <v>6.290780542234735</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.756048243196497</v>
+      </c>
+      <c r="P7">
+        <v>14.97697394382115</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.4098369290091</v>
+        <v>13.30038905656734</v>
       </c>
       <c r="C8">
-        <v>6.229302963447423</v>
+        <v>6.24274259796251</v>
       </c>
       <c r="D8">
-        <v>2.241424140301986</v>
+        <v>3.975381281702267</v>
       </c>
       <c r="E8">
-        <v>5.874565309802147</v>
+        <v>6.633405802858248</v>
       </c>
       <c r="F8">
-        <v>42.16578277174631</v>
+        <v>27.80735426000566</v>
       </c>
       <c r="G8">
-        <v>2.187809000852423</v>
+        <v>35.32513405068023</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.773956349762989</v>
       </c>
       <c r="J8">
-        <v>6.299574992118032</v>
+        <v>12.28240684179423</v>
       </c>
       <c r="K8">
-        <v>13.95514695884138</v>
+        <v>19.73591867830329</v>
       </c>
       <c r="L8">
-        <v>6.335751124913235</v>
+        <v>5.744632280677751</v>
       </c>
       <c r="M8">
-        <v>12.14649206161819</v>
+        <v>10.68403859373735</v>
       </c>
       <c r="N8">
-        <v>19.34511650892502</v>
+        <v>6.48098395931302</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.18739933888343</v>
+      </c>
+      <c r="P8">
+        <v>14.76842858293765</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.21716431130904</v>
+        <v>15.12267671684007</v>
       </c>
       <c r="C9">
-        <v>7.245610620743697</v>
+        <v>7.034780515766655</v>
       </c>
       <c r="D9">
-        <v>2.178844958098295</v>
+        <v>4.313868792820324</v>
       </c>
       <c r="E9">
-        <v>5.842842230150507</v>
+        <v>6.912693667191369</v>
       </c>
       <c r="F9">
-        <v>43.76822890184865</v>
+        <v>28.67302251490215</v>
       </c>
       <c r="G9">
-        <v>2.167399044228428</v>
+        <v>36.64116166212612</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.221034071975695</v>
       </c>
       <c r="J9">
-        <v>6.212662713449615</v>
+        <v>12.33436998042807</v>
       </c>
       <c r="K9">
-        <v>15.32614193967956</v>
+        <v>19.82039376943606</v>
       </c>
       <c r="L9">
-        <v>6.419350642227753</v>
+        <v>5.84745317183641</v>
       </c>
       <c r="M9">
-        <v>12.73394673083556</v>
+        <v>12.24732860199921</v>
       </c>
       <c r="N9">
-        <v>19.1068218137744</v>
+        <v>6.83850359118756</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.99571538348739</v>
+      </c>
+      <c r="P9">
+        <v>14.37687761192302</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.50897283210192</v>
+        <v>16.30807544034797</v>
       </c>
       <c r="C10">
-        <v>7.929021933490789</v>
+        <v>7.582643354929488</v>
       </c>
       <c r="D10">
-        <v>2.129908483194729</v>
+        <v>4.524196521249486</v>
       </c>
       <c r="E10">
-        <v>5.826151891027325</v>
+        <v>7.057001982669465</v>
       </c>
       <c r="F10">
-        <v>45.04829350190135</v>
+        <v>29.2160860517806</v>
       </c>
       <c r="G10">
-        <v>2.152971763318944</v>
+        <v>37.47682659192524</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.863481638407135</v>
       </c>
       <c r="J10">
-        <v>6.152440310272518</v>
+        <v>12.35848849606265</v>
       </c>
       <c r="K10">
-        <v>16.31289273102385</v>
+        <v>19.84592132175588</v>
       </c>
       <c r="L10">
-        <v>6.494017336031963</v>
+        <v>5.906707818640026</v>
       </c>
       <c r="M10">
-        <v>13.18631974838105</v>
+        <v>13.30425229143514</v>
       </c>
       <c r="N10">
-        <v>18.95780793406699</v>
+        <v>7.029519871887148</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.50222533892764</v>
+      </c>
+      <c r="P10">
+        <v>14.08312387543187</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.08735567721481</v>
+        <v>16.48928591788085</v>
       </c>
       <c r="C11">
-        <v>8.226891971927129</v>
+        <v>7.950194359977926</v>
       </c>
       <c r="D11">
-        <v>2.106826583423496</v>
+        <v>4.407795764718463</v>
       </c>
       <c r="E11">
-        <v>5.820055533137233</v>
+        <v>6.724620106214438</v>
       </c>
       <c r="F11">
-        <v>45.65371898117188</v>
+        <v>28.23840565429804</v>
       </c>
       <c r="G11">
-        <v>2.146507198071711</v>
+        <v>36.07787263911968</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.550028569823403</v>
       </c>
       <c r="J11">
-        <v>6.125770912836064</v>
+        <v>12.03768208943587</v>
       </c>
       <c r="K11">
-        <v>16.75619067154943</v>
+        <v>19.18492398561247</v>
       </c>
       <c r="L11">
-        <v>6.530987868583027</v>
+        <v>5.864169195517133</v>
       </c>
       <c r="M11">
-        <v>13.39630873721683</v>
+        <v>13.59076041951542</v>
       </c>
       <c r="N11">
-        <v>18.89620829330849</v>
+        <v>6.606318375009791</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.21197594684604</v>
+      </c>
+      <c r="P11">
+        <v>13.82661090753293</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.3049633863048</v>
+        <v>16.39434074148134</v>
       </c>
       <c r="C12">
-        <v>8.337879712352013</v>
+        <v>8.15077921731627</v>
       </c>
       <c r="D12">
-        <v>2.097951844561126</v>
+        <v>4.264531182364682</v>
       </c>
       <c r="E12">
-        <v>5.817967727085348</v>
+        <v>6.499687476624828</v>
       </c>
       <c r="F12">
-        <v>45.88637579023471</v>
+        <v>27.2806449875876</v>
       </c>
       <c r="G12">
-        <v>2.14407115995129</v>
+        <v>34.69160296184121</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.714188932003512</v>
       </c>
       <c r="J12">
-        <v>6.115770881200542</v>
+        <v>11.75688640488815</v>
       </c>
       <c r="K12">
-        <v>16.9231913844611</v>
+        <v>18.61731684239103</v>
       </c>
       <c r="L12">
-        <v>6.54543034658296</v>
+        <v>5.866074297822207</v>
       </c>
       <c r="M12">
-        <v>13.47640927942845</v>
+        <v>13.61691237584029</v>
       </c>
       <c r="N12">
-        <v>18.87382251978228</v>
+        <v>6.232205242641322</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.85446481132564</v>
+      </c>
+      <c r="P12">
+        <v>13.68800102556813</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.25816146461305</v>
+        <v>16.07794623774187</v>
       </c>
       <c r="C13">
-        <v>8.31405592279066</v>
+        <v>8.240290205302161</v>
       </c>
       <c r="D13">
-        <v>2.099869416888843</v>
+        <v>4.089373241447172</v>
       </c>
       <c r="E13">
-        <v>5.81840745997374</v>
+        <v>6.349286785174406</v>
       </c>
       <c r="F13">
-        <v>45.83611668603811</v>
+        <v>26.27169565169023</v>
       </c>
       <c r="G13">
-        <v>2.144595310128838</v>
+        <v>33.21389264616458</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.023765949911588</v>
       </c>
       <c r="J13">
-        <v>6.117920248925913</v>
+        <v>11.48936777037863</v>
       </c>
       <c r="K13">
-        <v>16.88726408879986</v>
+        <v>18.08747314896017</v>
       </c>
       <c r="L13">
-        <v>6.542300043788124</v>
+        <v>5.899935626336569</v>
       </c>
       <c r="M13">
-        <v>13.45913258232345</v>
+        <v>13.44529838015508</v>
       </c>
       <c r="N13">
-        <v>18.87860098862408</v>
+        <v>5.875230400479675</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.41738943293395</v>
+      </c>
+      <c r="P13">
+        <v>13.63066412191001</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.10528706445854</v>
+        <v>15.7517258601085</v>
       </c>
       <c r="C14">
-        <v>8.236058880017396</v>
+        <v>8.254070810804661</v>
       </c>
       <c r="D14">
-        <v>2.106099239232835</v>
+        <v>3.951327889760957</v>
       </c>
       <c r="E14">
-        <v>5.819879309696956</v>
+        <v>6.293205450835865</v>
       </c>
       <c r="F14">
-        <v>45.67279129042544</v>
+        <v>25.5430910615342</v>
       </c>
       <c r="G14">
-        <v>2.146306557586062</v>
+        <v>32.13702772010472</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.983596860921286</v>
       </c>
       <c r="J14">
-        <v>6.124946250209582</v>
+        <v>11.30944690955773</v>
       </c>
       <c r="K14">
-        <v>16.76994756666445</v>
+        <v>17.73769046853349</v>
       </c>
       <c r="L14">
-        <v>6.53216712816753</v>
+        <v>5.943182661017923</v>
       </c>
       <c r="M14">
-        <v>13.40288709169327</v>
+        <v>13.2333842042356</v>
       </c>
       <c r="N14">
-        <v>18.89434743798557</v>
+        <v>5.640672556797669</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.07251112113847</v>
+      </c>
+      <c r="P14">
+        <v>13.62897561937887</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.01146119207568</v>
+        <v>15.62419204832613</v>
       </c>
       <c r="C15">
-        <v>8.188049784920718</v>
+        <v>8.233516209295605</v>
       </c>
       <c r="D15">
-        <v>2.10989721355146</v>
+        <v>3.910842507524552</v>
       </c>
       <c r="E15">
-        <v>5.820809784818583</v>
+        <v>6.283330805962239</v>
       </c>
       <c r="F15">
-        <v>45.57319429644806</v>
+        <v>25.35771855539734</v>
       </c>
       <c r="G15">
-        <v>2.147356233600106</v>
+        <v>31.85957288816854</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.212103394404632</v>
       </c>
       <c r="J15">
-        <v>6.129262618623089</v>
+        <v>11.26945730826696</v>
       </c>
       <c r="K15">
-        <v>16.69797347786181</v>
+        <v>17.66195324477759</v>
       </c>
       <c r="L15">
-        <v>6.526018379878412</v>
+        <v>5.953526405080102</v>
       </c>
       <c r="M15">
-        <v>13.36851038404413</v>
+        <v>13.13856768468687</v>
       </c>
       <c r="N15">
-        <v>18.90411670370495</v>
+        <v>5.584410725025037</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.971955302842403</v>
+      </c>
+      <c r="P15">
+        <v>13.64346529756643</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.47098001886355</v>
+        <v>15.17699139303829</v>
       </c>
       <c r="C16">
-        <v>7.909298721032421</v>
+        <v>7.996905543058884</v>
       </c>
       <c r="D16">
-        <v>2.131399083758796</v>
+        <v>3.850849124287343</v>
       </c>
       <c r="E16">
-        <v>5.826580875318371</v>
+        <v>6.246050205181688</v>
       </c>
       <c r="F16">
-        <v>45.00919846483743</v>
+        <v>25.31169629612647</v>
       </c>
       <c r="G16">
-        <v>2.153396035256353</v>
+        <v>31.76409860470634</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.056112034143587</v>
       </c>
       <c r="J16">
-        <v>6.154197383049471</v>
+        <v>11.31206158624865</v>
       </c>
       <c r="K16">
-        <v>16.28380382138068</v>
+        <v>17.75824000940464</v>
       </c>
       <c r="L16">
-        <v>6.491662564691156</v>
+        <v>5.916798177174472</v>
       </c>
       <c r="M16">
-        <v>13.17267901786968</v>
+        <v>12.72816176837258</v>
       </c>
       <c r="N16">
-        <v>18.96196235063687</v>
+        <v>5.569798345470502</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.830897423482805</v>
+      </c>
+      <c r="P16">
+        <v>13.77584744974662</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.13697083364114</v>
+        <v>15.00995056637714</v>
       </c>
       <c r="C17">
-        <v>7.735002861801468</v>
+        <v>7.803787734366925</v>
       </c>
       <c r="D17">
-        <v>2.144368622765416</v>
+        <v>3.879746591141123</v>
       </c>
       <c r="E17">
-        <v>5.830508268572699</v>
+        <v>6.238376001364951</v>
       </c>
       <c r="F17">
-        <v>44.66917259373776</v>
+        <v>25.66856634209146</v>
       </c>
       <c r="G17">
-        <v>2.157124971348091</v>
+        <v>32.27346832727928</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.404474847888044</v>
       </c>
       <c r="J17">
-        <v>6.169676358599689</v>
+        <v>11.44071942335021</v>
       </c>
       <c r="K17">
-        <v>16.02824131893622</v>
+        <v>18.01724612527772</v>
       </c>
       <c r="L17">
-        <v>6.471363160193127</v>
+        <v>5.862073001292972</v>
       </c>
       <c r="M17">
-        <v>13.05360162921884</v>
+        <v>12.52500202228915</v>
       </c>
       <c r="N17">
-        <v>18.99906805835626</v>
+        <v>5.6798372774121</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.910222608497197</v>
+      </c>
+      <c r="P17">
+        <v>13.87833432463509</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.94398801105017</v>
+        <v>15.06929973568552</v>
       </c>
       <c r="C18">
-        <v>7.633523190555458</v>
+        <v>7.629457708936408</v>
       </c>
       <c r="D18">
-        <v>2.151752185183145</v>
+        <v>3.989312882914653</v>
       </c>
       <c r="E18">
-        <v>5.832907659611431</v>
+        <v>6.306926303813297</v>
       </c>
       <c r="F18">
-        <v>44.47576971251909</v>
+        <v>26.40883130018178</v>
       </c>
       <c r="G18">
-        <v>2.159279169466583</v>
+        <v>33.35304267722824</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.306018536930886</v>
       </c>
       <c r="J18">
-        <v>6.178648138587888</v>
+        <v>11.65705039683157</v>
       </c>
       <c r="K18">
-        <v>15.88072556002962</v>
+        <v>18.44748957833883</v>
       </c>
       <c r="L18">
-        <v>6.459969598193725</v>
+        <v>5.809442441620966</v>
       </c>
       <c r="M18">
-        <v>12.98550799369768</v>
+        <v>12.48349149963184</v>
       </c>
       <c r="N18">
-        <v>19.02098931447503</v>
+        <v>5.93067927915282</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.18784812254204</v>
+      </c>
+      <c r="P18">
+        <v>13.97515017095473</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.87850099273479</v>
+        <v>15.30292726692656</v>
       </c>
       <c r="C19">
-        <v>7.5989509615125</v>
+        <v>7.486499955382212</v>
       </c>
       <c r="D19">
-        <v>2.15423951763758</v>
+        <v>4.155583516524928</v>
       </c>
       <c r="E19">
-        <v>5.833744014320212</v>
+        <v>6.504388340076392</v>
       </c>
       <c r="F19">
-        <v>44.41065774976907</v>
+        <v>27.40349227580715</v>
       </c>
       <c r="G19">
-        <v>2.160010224629827</v>
+        <v>34.80850413469607</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.085289457448751</v>
       </c>
       <c r="J19">
-        <v>6.181697781067238</v>
+        <v>11.92932370441295</v>
       </c>
       <c r="K19">
-        <v>15.83069180742689</v>
+        <v>18.99138174721282</v>
       </c>
       <c r="L19">
-        <v>6.456160076834183</v>
+        <v>5.797657682960639</v>
       </c>
       <c r="M19">
-        <v>12.96252152865902</v>
+        <v>12.57606249508608</v>
       </c>
       <c r="N19">
-        <v>19.02850946290825</v>
+        <v>6.303038042829179</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.60132516750926</v>
+      </c>
+      <c r="P19">
+        <v>14.07195234161315</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.17261736843994</v>
+        <v>16.00266158910284</v>
       </c>
       <c r="C20">
-        <v>7.753683744961215</v>
+        <v>7.44290183360209</v>
       </c>
       <c r="D20">
-        <v>2.142995989072898</v>
+        <v>4.46877063683689</v>
       </c>
       <c r="E20">
-        <v>5.830075615146176</v>
+        <v>7.017112949326846</v>
       </c>
       <c r="F20">
-        <v>44.70514376740706</v>
+        <v>29.06372067989139</v>
       </c>
       <c r="G20">
-        <v>2.156727060915116</v>
+        <v>37.24276867023141</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.955918354236968</v>
       </c>
       <c r="J20">
-        <v>6.168021524093045</v>
+        <v>12.34874288788129</v>
       </c>
       <c r="K20">
-        <v>16.05550105381517</v>
+        <v>19.83282368856024</v>
       </c>
       <c r="L20">
-        <v>6.473494793950294</v>
+        <v>5.890761804199823</v>
       </c>
       <c r="M20">
-        <v>13.0662367596322</v>
+        <v>13.03372008868668</v>
       </c>
       <c r="N20">
-        <v>18.99505781336831</v>
+        <v>6.977244789587712</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.36838524644435</v>
+      </c>
+      <c r="P20">
+        <v>14.15887939895617</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.15022881825407</v>
+        <v>16.93526094829162</v>
       </c>
       <c r="C21">
-        <v>8.259017075695201</v>
+        <v>7.824503511112897</v>
       </c>
       <c r="D21">
-        <v>2.104273165674464</v>
+        <v>4.663091066459745</v>
       </c>
       <c r="E21">
-        <v>5.819440953046969</v>
+        <v>7.207100791372831</v>
       </c>
       <c r="F21">
-        <v>45.72067113113707</v>
+        <v>29.71651679108335</v>
       </c>
       <c r="G21">
-        <v>2.145803616961194</v>
+        <v>38.22853760460415</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.648338671351528</v>
       </c>
       <c r="J21">
-        <v>6.122879898443665</v>
+        <v>12.43562579108131</v>
       </c>
       <c r="K21">
-        <v>16.80443017878623</v>
+        <v>19.98879639212196</v>
       </c>
       <c r="L21">
-        <v>6.535131313582299</v>
+        <v>5.954076635117281</v>
       </c>
       <c r="M21">
-        <v>13.41939209799909</v>
+        <v>13.837886669318</v>
       </c>
       <c r="N21">
-        <v>18.88969636066308</v>
+        <v>7.214408605343711</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.8393846343603</v>
+      </c>
+      <c r="P21">
+        <v>13.96098360415328</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.78090229038096</v>
+        <v>17.503170380698</v>
       </c>
       <c r="C22">
-        <v>8.5787695263034</v>
+        <v>8.072743793330487</v>
       </c>
       <c r="D22">
-        <v>2.078175173900994</v>
+        <v>4.774665193997177</v>
       </c>
       <c r="E22">
-        <v>5.813780332492273</v>
+        <v>7.302743297111629</v>
       </c>
       <c r="F22">
-        <v>46.40421194730132</v>
+        <v>30.07893788476886</v>
       </c>
       <c r="G22">
-        <v>2.13873300556832</v>
+        <v>38.77993872214934</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.463670665149172</v>
       </c>
       <c r="J22">
-        <v>6.0939520413533</v>
+        <v>12.47760716706791</v>
       </c>
       <c r="K22">
-        <v>17.28883554788085</v>
+        <v>20.05910859149292</v>
       </c>
       <c r="L22">
-        <v>6.577999204538735</v>
+        <v>5.988496517471192</v>
       </c>
       <c r="M22">
-        <v>13.65358786961496</v>
+        <v>14.33177314298519</v>
       </c>
       <c r="N22">
-        <v>18.82634733134686</v>
+        <v>7.335888083207884</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.11044784293308</v>
+      </c>
+      <c r="P22">
+        <v>13.82503095644488</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.44507320406118</v>
+        <v>17.20205068598619</v>
       </c>
       <c r="C23">
-        <v>8.409051298736179</v>
+        <v>7.941062563351153</v>
       </c>
       <c r="D23">
-        <v>2.09218222033691</v>
+        <v>4.715388022955489</v>
       </c>
       <c r="E23">
-        <v>5.816681493407949</v>
+        <v>7.251829826856588</v>
       </c>
       <c r="F23">
-        <v>46.03755092824303</v>
+        <v>29.88471883759891</v>
       </c>
       <c r="G23">
-        <v>2.142501241505213</v>
+        <v>38.48444435132794</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.561911057005171</v>
       </c>
       <c r="J23">
-        <v>6.109340654158346</v>
+        <v>12.45473414206253</v>
       </c>
       <c r="K23">
-        <v>17.03077723940948</v>
+        <v>20.0207752714368</v>
       </c>
       <c r="L23">
-        <v>6.554879629649333</v>
+        <v>5.970183013397258</v>
       </c>
       <c r="M23">
-        <v>13.52828876087004</v>
+        <v>14.07012600725723</v>
       </c>
       <c r="N23">
-        <v>18.85963533804775</v>
+        <v>7.271269307538672</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.96635936354627</v>
+      </c>
+      <c r="P23">
+        <v>13.89745683693197</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.15650454280219</v>
+        <v>16.01815311091411</v>
       </c>
       <c r="C24">
-        <v>7.745242092636144</v>
+        <v>7.424515521945304</v>
       </c>
       <c r="D24">
-        <v>2.143616782314419</v>
+        <v>4.485005696828033</v>
       </c>
       <c r="E24">
-        <v>5.830270777497025</v>
+        <v>7.056070722764315</v>
       </c>
       <c r="F24">
-        <v>44.68887471835588</v>
+        <v>29.16659014466725</v>
       </c>
       <c r="G24">
-        <v>2.156906923716532</v>
+        <v>37.39191535870625</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.941177354436186</v>
       </c>
       <c r="J24">
-        <v>6.168769447898713</v>
+        <v>12.37818993787478</v>
       </c>
       <c r="K24">
-        <v>16.04317875857286</v>
+        <v>19.89299337618683</v>
       </c>
       <c r="L24">
-        <v>6.472530220833203</v>
+        <v>5.899536107957178</v>
       </c>
       <c r="M24">
-        <v>13.06052327683659</v>
+        <v>13.03615169216588</v>
       </c>
       <c r="N24">
-        <v>18.99686901527021</v>
+        <v>7.02186897822568</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.40815509373433</v>
+      </c>
+      <c r="P24">
+        <v>14.17480406553102</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.73394963604611</v>
+        <v>14.64957316452172</v>
       </c>
       <c r="C25">
-        <v>6.982007378595882</v>
+        <v>6.829092608292944</v>
       </c>
       <c r="D25">
-        <v>2.196238286846334</v>
+        <v>4.224657109703495</v>
       </c>
       <c r="E25">
-        <v>5.850280929712395</v>
+        <v>6.838578148756921</v>
       </c>
       <c r="F25">
-        <v>43.31691949184269</v>
+        <v>28.43007381319331</v>
       </c>
       <c r="G25">
-        <v>2.172812985975975</v>
+        <v>36.27169792347242</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.366613724367128</v>
       </c>
       <c r="J25">
-        <v>6.235517324040642</v>
+        <v>12.31608638853822</v>
       </c>
       <c r="K25">
-        <v>14.95838190467312</v>
+        <v>19.7903285695201</v>
       </c>
       <c r="L25">
-        <v>6.394450199165584</v>
+        <v>5.820372537174102</v>
       </c>
       <c r="M25">
-        <v>12.57125641387548</v>
+        <v>11.82769352071614</v>
       </c>
       <c r="N25">
-        <v>19.16687539898666</v>
+        <v>6.743595333833063</v>
       </c>
       <c r="O25">
+        <v>10.78161766703551</v>
+      </c>
+      <c r="P25">
+        <v>14.48102189662255</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.5651004610252</v>
+        <v>13.00424436420899</v>
       </c>
       <c r="C2">
-        <v>6.357807141743225</v>
+        <v>6.522613018744303</v>
       </c>
       <c r="D2">
-        <v>4.023648566367617</v>
+        <v>4.220044203702247</v>
       </c>
       <c r="E2">
-        <v>6.67294146657272</v>
+        <v>6.670845115265401</v>
       </c>
       <c r="F2">
-        <v>27.92117047132459</v>
+        <v>26.68460283690662</v>
       </c>
       <c r="G2">
-        <v>35.49807665822884</v>
+        <v>33.34343717586466</v>
       </c>
       <c r="H2">
-        <v>3.694883158049171</v>
+        <v>3.479304160780755</v>
       </c>
       <c r="J2">
-        <v>12.28685534764865</v>
+        <v>11.85290872616537</v>
       </c>
       <c r="K2">
-        <v>19.74293743083525</v>
+        <v>18.57050807571201</v>
       </c>
       <c r="L2">
-        <v>5.75933194845032</v>
+        <v>14.54185998644127</v>
       </c>
       <c r="M2">
-        <v>10.88656055369686</v>
+        <v>12.95348999823048</v>
       </c>
       <c r="N2">
-        <v>6.531529996932795</v>
+        <v>5.699484533933295</v>
       </c>
       <c r="O2">
-        <v>10.3019393411159</v>
+        <v>10.84856216879095</v>
       </c>
       <c r="P2">
-        <v>14.71313056284597</v>
+        <v>6.82918028826215</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.17205342459284</v>
+      </c>
+      <c r="R2">
+        <v>14.3290188771235</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.78388617042598</v>
+        <v>12.25156473107002</v>
       </c>
       <c r="C3">
-        <v>6.018100036951203</v>
+        <v>6.092569785404197</v>
       </c>
       <c r="D3">
-        <v>3.882179059944055</v>
+        <v>4.074188133119773</v>
       </c>
       <c r="E3">
-        <v>6.557265059645923</v>
+        <v>6.568776113081566</v>
       </c>
       <c r="F3">
-        <v>27.5973486015709</v>
+        <v>26.42253649256053</v>
       </c>
       <c r="G3">
-        <v>35.00613816223606</v>
+        <v>33.03085183866535</v>
       </c>
       <c r="H3">
-        <v>3.92718220396474</v>
+        <v>3.690090081669415</v>
       </c>
       <c r="J3">
-        <v>12.27678096569746</v>
+        <v>11.81250738553501</v>
       </c>
       <c r="K3">
-        <v>19.72738057531717</v>
+        <v>18.59374703608539</v>
       </c>
       <c r="L3">
-        <v>5.716150356340292</v>
+        <v>14.63015127847003</v>
       </c>
       <c r="M3">
-        <v>10.28977523009542</v>
+        <v>12.92980730883737</v>
       </c>
       <c r="N3">
-        <v>6.383801377938249</v>
+        <v>5.660277619559811</v>
       </c>
       <c r="O3">
-        <v>9.967040021309179</v>
+        <v>10.1676401730647</v>
       </c>
       <c r="P3">
-        <v>14.8748496473576</v>
+        <v>6.683003520225525</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.839604785652293</v>
+      </c>
+      <c r="R3">
+        <v>14.48717681673515</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28221000592228</v>
+        <v>11.76605694224048</v>
       </c>
       <c r="C4">
-        <v>5.799635858797014</v>
+        <v>5.814542395772412</v>
       </c>
       <c r="D4">
-        <v>3.792960198201679</v>
+        <v>3.982558529063372</v>
       </c>
       <c r="E4">
-        <v>6.484562250698979</v>
+        <v>6.504669405247829</v>
       </c>
       <c r="F4">
-        <v>27.4089586033179</v>
+        <v>26.27031729064477</v>
       </c>
       <c r="G4">
-        <v>34.72012332181823</v>
+        <v>32.85681195010064</v>
       </c>
       <c r="H4">
-        <v>4.074804984025508</v>
+        <v>3.824131621493293</v>
       </c>
       <c r="J4">
-        <v>12.27521372282265</v>
+        <v>11.78972638565613</v>
       </c>
       <c r="K4">
-        <v>19.72565492207119</v>
+        <v>18.61400817473481</v>
       </c>
       <c r="L4">
-        <v>5.688712028090864</v>
+        <v>14.68559870108891</v>
       </c>
       <c r="M4">
-        <v>9.908075332935095</v>
+        <v>12.93508664059845</v>
       </c>
       <c r="N4">
-        <v>6.291292994846875</v>
+        <v>5.635331488788432</v>
       </c>
       <c r="O4">
-        <v>9.757210525034568</v>
+        <v>9.783986624172575</v>
       </c>
       <c r="P4">
-        <v>14.97641031658554</v>
+        <v>6.591948474172677</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.630855255175653</v>
+      </c>
+      <c r="R4">
+        <v>14.58638947297037</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.07239625862932</v>
+        <v>11.5624403115104</v>
       </c>
       <c r="C5">
-        <v>5.708155080090934</v>
+        <v>5.697748617460314</v>
       </c>
       <c r="D5">
-        <v>3.756049939702395</v>
+        <v>3.944745577878048</v>
       </c>
       <c r="E5">
-        <v>6.454516449469322</v>
+        <v>6.478186563745718</v>
       </c>
       <c r="F5">
-        <v>27.33481684403887</v>
+        <v>26.21046018883299</v>
       </c>
       <c r="G5">
-        <v>34.60760838553627</v>
+        <v>32.79029921862618</v>
       </c>
       <c r="H5">
-        <v>4.136237181823881</v>
+        <v>3.879932383757844</v>
       </c>
       <c r="J5">
-        <v>12.27570933166748</v>
+        <v>11.78094453790579</v>
       </c>
       <c r="K5">
-        <v>19.72686919284347</v>
+        <v>18.62372858412935</v>
       </c>
       <c r="L5">
-        <v>5.677293999656158</v>
+        <v>14.70850623340713</v>
       </c>
       <c r="M5">
-        <v>9.74883806722351</v>
+        <v>12.94216244329401</v>
       </c>
       <c r="N5">
-        <v>6.253170581471733</v>
+        <v>5.624942397965119</v>
       </c>
       <c r="O5">
-        <v>9.670754656948775</v>
+        <v>9.623637380557174</v>
       </c>
       <c r="P5">
-        <v>15.0183784056999</v>
+        <v>6.554548382640638</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.544730594710435</v>
+      </c>
+      <c r="R5">
+        <v>14.62736126015136</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.03723742422903</v>
+        <v>11.528285152542</v>
       </c>
       <c r="C6">
-        <v>5.692817565883622</v>
+        <v>5.678144771325487</v>
       </c>
       <c r="D6">
-        <v>3.74988887047687</v>
+        <v>3.938439690425778</v>
       </c>
       <c r="E6">
-        <v>6.449502168692339</v>
+        <v>6.473767509710482</v>
       </c>
       <c r="F6">
-        <v>27.32266443484461</v>
+        <v>26.20065180814382</v>
       </c>
       <c r="G6">
-        <v>34.58916924156246</v>
+        <v>32.77951841020704</v>
       </c>
       <c r="H6">
-        <v>4.146515510323519</v>
+        <v>3.889269663389045</v>
       </c>
       <c r="J6">
-        <v>12.27585934246086</v>
+        <v>11.77951638473379</v>
       </c>
       <c r="K6">
-        <v>19.72718515671853</v>
+        <v>18.62542982210045</v>
       </c>
       <c r="L6">
-        <v>5.675383630297825</v>
+        <v>14.71232891356959</v>
       </c>
       <c r="M6">
-        <v>9.722178832857182</v>
+        <v>12.94363271518957</v>
       </c>
       <c r="N6">
-        <v>6.246815617553913</v>
+        <v>5.623203698460304</v>
       </c>
       <c r="O6">
-        <v>9.656344751550137</v>
+        <v>9.596773885387748</v>
       </c>
       <c r="P6">
-        <v>15.02538262392255</v>
+        <v>6.548321335091038</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.530369050525781</v>
+      </c>
+      <c r="R6">
+        <v>14.63419769015598</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.27940191979359</v>
+        <v>11.7593002095489</v>
       </c>
       <c r="C7">
-        <v>5.798412009949465</v>
+        <v>5.803701036732932</v>
       </c>
       <c r="D7">
-        <v>3.792464596524646</v>
+        <v>3.98650090240444</v>
       </c>
       <c r="E7">
-        <v>6.484158734007813</v>
+        <v>6.505406590366578</v>
       </c>
       <c r="F7">
-        <v>27.40794805692971</v>
+        <v>26.25363894526648</v>
       </c>
       <c r="G7">
-        <v>34.71858955454635</v>
+        <v>32.91938362248742</v>
       </c>
       <c r="H7">
-        <v>4.075628292984334</v>
+        <v>3.825615755433113</v>
       </c>
       <c r="J7">
-        <v>12.27521584991505</v>
+        <v>11.74979375396932</v>
       </c>
       <c r="K7">
-        <v>19.72566360100312</v>
+        <v>18.60563013802641</v>
       </c>
       <c r="L7">
-        <v>5.688559004318316</v>
+        <v>14.67804003475614</v>
       </c>
       <c r="M7">
-        <v>9.905942531277411</v>
+        <v>12.93011745020882</v>
       </c>
       <c r="N7">
-        <v>6.290780542234735</v>
+        <v>5.634922543651139</v>
       </c>
       <c r="O7">
-        <v>9.756048243196497</v>
+        <v>9.775786567468142</v>
       </c>
       <c r="P7">
-        <v>14.97697394382115</v>
+        <v>6.590918444863789</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.628097764399079</v>
+      </c>
+      <c r="R7">
+        <v>14.58512399659081</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.30038905656734</v>
+        <v>12.7371245545859</v>
       </c>
       <c r="C8">
-        <v>6.24274259796251</v>
+        <v>6.348566509201846</v>
       </c>
       <c r="D8">
-        <v>3.975381281702267</v>
+        <v>4.184488289334616</v>
       </c>
       <c r="E8">
-        <v>6.633405802858248</v>
+        <v>6.639597245837326</v>
       </c>
       <c r="F8">
-        <v>27.80735426000566</v>
+        <v>26.54071420786855</v>
       </c>
       <c r="G8">
-        <v>35.32513405068023</v>
+        <v>33.44125393452478</v>
       </c>
       <c r="H8">
-        <v>3.773956349762989</v>
+        <v>3.553313538514434</v>
       </c>
       <c r="J8">
-        <v>12.28240684179423</v>
+        <v>11.70858482079658</v>
       </c>
       <c r="K8">
-        <v>19.73591867830329</v>
+        <v>18.54938371520585</v>
       </c>
       <c r="L8">
-        <v>5.744632280677751</v>
+        <v>14.547820580617</v>
       </c>
       <c r="M8">
-        <v>10.68403859373735</v>
+        <v>12.92292993685016</v>
       </c>
       <c r="N8">
-        <v>6.48098395931302</v>
+        <v>5.685316700337617</v>
       </c>
       <c r="O8">
-        <v>10.18739933888343</v>
+        <v>10.59644354875038</v>
       </c>
       <c r="P8">
-        <v>14.76842858293765</v>
+        <v>6.777392106292355</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.05330737189793</v>
+      </c>
+      <c r="R8">
+        <v>14.37748330146372</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.12267671684007</v>
+        <v>14.48071554037933</v>
       </c>
       <c r="C9">
-        <v>7.034780515766655</v>
+        <v>7.339848790737157</v>
       </c>
       <c r="D9">
-        <v>4.313868792820324</v>
+        <v>4.537891405669668</v>
       </c>
       <c r="E9">
-        <v>6.912693667191369</v>
+        <v>6.887233617659695</v>
       </c>
       <c r="F9">
-        <v>28.67302251490215</v>
+        <v>27.23129461439253</v>
       </c>
       <c r="G9">
-        <v>36.64116166212612</v>
+        <v>34.37507120993362</v>
       </c>
       <c r="H9">
-        <v>3.221034071975695</v>
+        <v>3.052528756498709</v>
       </c>
       <c r="J9">
-        <v>12.33436998042807</v>
+        <v>11.78744140238348</v>
       </c>
       <c r="K9">
-        <v>19.82039376943606</v>
+        <v>18.51959914303181</v>
       </c>
       <c r="L9">
-        <v>5.84745317183641</v>
+        <v>14.33093451167262</v>
       </c>
       <c r="M9">
-        <v>12.24732860199921</v>
+        <v>13.08629903489064</v>
       </c>
       <c r="N9">
-        <v>6.83850359118756</v>
+        <v>5.778370892759093</v>
       </c>
       <c r="O9">
-        <v>10.99571538348739</v>
+        <v>12.1833525729022</v>
       </c>
       <c r="P9">
-        <v>14.37687761192302</v>
+        <v>7.13330607769734</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.85221797258656</v>
+      </c>
+      <c r="R9">
+        <v>13.9929717629504</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.30807544034797</v>
+        <v>15.59222170371142</v>
       </c>
       <c r="C10">
-        <v>7.582643354929488</v>
+        <v>7.967685477263714</v>
       </c>
       <c r="D10">
-        <v>4.524196521249486</v>
+        <v>4.780586804454459</v>
       </c>
       <c r="E10">
-        <v>7.057001982669465</v>
+        <v>7.01755201411272</v>
       </c>
       <c r="F10">
-        <v>29.2160860517806</v>
+        <v>27.56639939678374</v>
       </c>
       <c r="G10">
-        <v>37.47682659192524</v>
+        <v>35.32170685945061</v>
       </c>
       <c r="H10">
-        <v>2.863481638407135</v>
+        <v>2.734657344575011</v>
       </c>
       <c r="J10">
-        <v>12.35848849606265</v>
+        <v>11.60439010094748</v>
       </c>
       <c r="K10">
-        <v>19.84592132175588</v>
+        <v>18.41627948066817</v>
       </c>
       <c r="L10">
-        <v>5.906707818640026</v>
+        <v>14.09102726273636</v>
       </c>
       <c r="M10">
-        <v>13.30425229143514</v>
+        <v>13.21615217363703</v>
       </c>
       <c r="N10">
-        <v>7.029519871887148</v>
+        <v>5.832050877835397</v>
       </c>
       <c r="O10">
-        <v>11.50222533892764</v>
+        <v>13.18510987275982</v>
       </c>
       <c r="P10">
-        <v>14.08312387543187</v>
+        <v>7.320770552857433</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.34276579676996</v>
+      </c>
+      <c r="R10">
+        <v>13.70047377206723</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.48928591788085</v>
+        <v>15.75855026213036</v>
       </c>
       <c r="C11">
-        <v>7.950194359977926</v>
+        <v>8.246379246812314</v>
       </c>
       <c r="D11">
-        <v>4.407795764718463</v>
+        <v>4.701026519699383</v>
       </c>
       <c r="E11">
-        <v>6.724620106214438</v>
+        <v>6.699914541193644</v>
       </c>
       <c r="F11">
-        <v>28.23840565429804</v>
+        <v>26.46562642564754</v>
       </c>
       <c r="G11">
-        <v>36.07787263911968</v>
+        <v>34.76548234913358</v>
       </c>
       <c r="H11">
-        <v>3.550028569823403</v>
+        <v>3.460055979769125</v>
       </c>
       <c r="J11">
-        <v>12.03768208943587</v>
+        <v>10.90118572757828</v>
       </c>
       <c r="K11">
-        <v>19.18492398561247</v>
+        <v>17.72334521026558</v>
       </c>
       <c r="L11">
-        <v>5.864169195517133</v>
+        <v>13.5035504806204</v>
       </c>
       <c r="M11">
-        <v>13.59076041951542</v>
+        <v>12.77971110306826</v>
       </c>
       <c r="N11">
-        <v>6.606318375009791</v>
+        <v>5.807179225395616</v>
       </c>
       <c r="O11">
-        <v>11.21197594684604</v>
+        <v>13.4136405872447</v>
       </c>
       <c r="P11">
-        <v>13.82661090753293</v>
+        <v>6.875708930154172</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.039879321199</v>
+      </c>
+      <c r="R11">
+        <v>13.48291616365063</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.39434074148134</v>
+        <v>15.6788134785347</v>
       </c>
       <c r="C12">
-        <v>8.15077921731627</v>
+        <v>8.379400708669147</v>
       </c>
       <c r="D12">
-        <v>4.264531182364682</v>
+        <v>4.5669381373427</v>
       </c>
       <c r="E12">
-        <v>6.499687476624828</v>
+        <v>6.48172987615404</v>
       </c>
       <c r="F12">
-        <v>27.2806449875876</v>
+        <v>25.50663187020502</v>
       </c>
       <c r="G12">
-        <v>34.69160296184121</v>
+        <v>33.84015465788136</v>
       </c>
       <c r="H12">
-        <v>4.714188932003512</v>
+        <v>4.648123074910298</v>
       </c>
       <c r="J12">
-        <v>11.75688640488815</v>
+        <v>10.50141880882492</v>
       </c>
       <c r="K12">
-        <v>18.61731684239103</v>
+        <v>17.19178436663894</v>
       </c>
       <c r="L12">
-        <v>5.866074297822207</v>
+        <v>13.09372069229325</v>
       </c>
       <c r="M12">
-        <v>13.61691237584029</v>
+        <v>12.39445449573952</v>
       </c>
       <c r="N12">
-        <v>6.232205242641322</v>
+        <v>5.824921350530812</v>
       </c>
       <c r="O12">
-        <v>10.85446481132564</v>
+        <v>13.41850499535786</v>
       </c>
       <c r="P12">
-        <v>13.68800102556813</v>
+        <v>6.484379051807565</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.68057272727689</v>
+      </c>
+      <c r="R12">
+        <v>13.38490608738702</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.07794623774187</v>
+        <v>15.4104893435014</v>
       </c>
       <c r="C13">
-        <v>8.240290205302161</v>
+        <v>8.431048646630467</v>
       </c>
       <c r="D13">
-        <v>4.089373241447172</v>
+        <v>4.371613324795179</v>
       </c>
       <c r="E13">
-        <v>6.349286785174406</v>
+        <v>6.335669602601768</v>
       </c>
       <c r="F13">
-        <v>26.27169565169023</v>
+        <v>24.62342585795536</v>
       </c>
       <c r="G13">
-        <v>33.21389264616458</v>
+        <v>32.40357346324118</v>
       </c>
       <c r="H13">
-        <v>6.023765949911588</v>
+        <v>5.96764269179305</v>
       </c>
       <c r="J13">
-        <v>11.48936777037863</v>
+        <v>10.35035874356218</v>
       </c>
       <c r="K13">
-        <v>18.08747314896017</v>
+        <v>16.76698836108769</v>
       </c>
       <c r="L13">
-        <v>5.899935626336569</v>
+        <v>12.79410370640135</v>
       </c>
       <c r="M13">
-        <v>13.44529838015508</v>
+        <v>12.04381411914603</v>
       </c>
       <c r="N13">
-        <v>5.875230400479675</v>
+        <v>5.873801937737463</v>
       </c>
       <c r="O13">
-        <v>10.41738943293395</v>
+        <v>13.26365171581707</v>
       </c>
       <c r="P13">
-        <v>13.63066412191001</v>
+        <v>6.113852154667809</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.25303586292966</v>
+      </c>
+      <c r="R13">
+        <v>13.36658491244901</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.7517258601085</v>
+        <v>15.13300244752543</v>
       </c>
       <c r="C14">
-        <v>8.254070810804661</v>
+        <v>8.430907051603519</v>
       </c>
       <c r="D14">
-        <v>3.951327889760957</v>
+        <v>4.207302588974576</v>
       </c>
       <c r="E14">
-        <v>6.293205450835865</v>
+        <v>6.284458876984004</v>
       </c>
       <c r="F14">
-        <v>25.5430910615342</v>
+        <v>24.03551267119142</v>
       </c>
       <c r="G14">
-        <v>32.13702772010472</v>
+        <v>31.18028763178998</v>
       </c>
       <c r="H14">
-        <v>6.983596860921286</v>
+        <v>6.930238462783851</v>
       </c>
       <c r="J14">
-        <v>11.30944690955773</v>
+        <v>10.34022609873615</v>
       </c>
       <c r="K14">
-        <v>17.73769046853349</v>
+        <v>16.51697299170942</v>
       </c>
       <c r="L14">
-        <v>5.943182661017923</v>
+        <v>12.62881811832598</v>
       </c>
       <c r="M14">
-        <v>13.2333842042356</v>
+        <v>11.81734636492219</v>
       </c>
       <c r="N14">
-        <v>5.640672556797669</v>
+        <v>5.926654575425105</v>
       </c>
       <c r="O14">
-        <v>10.07251112113847</v>
+        <v>13.08043723769819</v>
       </c>
       <c r="P14">
-        <v>13.62897561937887</v>
+        <v>5.871419539039898</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.919523151034142</v>
+      </c>
+      <c r="R14">
+        <v>13.38778363095232</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.62419204832613</v>
+        <v>15.02376441799687</v>
       </c>
       <c r="C15">
-        <v>8.233516209295605</v>
+        <v>8.412260660512654</v>
       </c>
       <c r="D15">
-        <v>3.910842507524552</v>
+        <v>4.15541863271844</v>
       </c>
       <c r="E15">
-        <v>6.283330805962239</v>
+        <v>6.277060265210343</v>
       </c>
       <c r="F15">
-        <v>25.35771855539734</v>
+        <v>23.90638921523838</v>
       </c>
       <c r="G15">
-        <v>31.85957288816854</v>
+        <v>30.7954607961086</v>
       </c>
       <c r="H15">
-        <v>7.212103394404632</v>
+        <v>7.158117663899239</v>
       </c>
       <c r="J15">
-        <v>11.26945730826696</v>
+        <v>10.37870543932769</v>
       </c>
       <c r="K15">
-        <v>17.66195324477759</v>
+        <v>16.47630890722752</v>
       </c>
       <c r="L15">
-        <v>5.953526405080102</v>
+        <v>12.6069338715454</v>
       </c>
       <c r="M15">
-        <v>13.13856768468687</v>
+        <v>11.77069427892831</v>
       </c>
       <c r="N15">
-        <v>5.584410725025037</v>
+        <v>5.93923735010322</v>
       </c>
       <c r="O15">
-        <v>9.971955302842403</v>
+        <v>13.00000128408167</v>
       </c>
       <c r="P15">
-        <v>13.64346529756643</v>
+        <v>5.814150720633903</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.823703276320957</v>
+      </c>
+      <c r="R15">
+        <v>13.40605691033032</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17699139303829</v>
+        <v>14.62995462467626</v>
       </c>
       <c r="C16">
-        <v>7.996905543058884</v>
+        <v>8.215541975387671</v>
       </c>
       <c r="D16">
-        <v>3.850849124287343</v>
+        <v>4.054238138082964</v>
       </c>
       <c r="E16">
-        <v>6.246050205181688</v>
+        <v>6.249514564063076</v>
       </c>
       <c r="F16">
-        <v>25.31169629612647</v>
+        <v>24.04430220470832</v>
       </c>
       <c r="G16">
-        <v>31.76409860470634</v>
+        <v>30.12342829579165</v>
       </c>
       <c r="H16">
-        <v>7.056112034143587</v>
+        <v>6.989359990195767</v>
       </c>
       <c r="J16">
-        <v>11.31206158624865</v>
+        <v>10.74425983394236</v>
       </c>
       <c r="K16">
-        <v>17.75824000940464</v>
+        <v>16.6639425926551</v>
       </c>
       <c r="L16">
-        <v>5.916798177174472</v>
+        <v>12.78166776271626</v>
       </c>
       <c r="M16">
-        <v>12.72816176837258</v>
+        <v>11.84801226337116</v>
       </c>
       <c r="N16">
-        <v>5.569798345470502</v>
+        <v>5.902556148970136</v>
       </c>
       <c r="O16">
-        <v>9.830897423482805</v>
+        <v>12.65192931041692</v>
       </c>
       <c r="P16">
-        <v>13.77584744974662</v>
+        <v>5.80859900714841</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.699003820290956</v>
+      </c>
+      <c r="R16">
+        <v>13.52586518384762</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00995056637714</v>
+        <v>14.4720906003941</v>
       </c>
       <c r="C17">
-        <v>7.803787734366925</v>
+        <v>8.049037869603074</v>
       </c>
       <c r="D17">
-        <v>3.879746591141123</v>
+        <v>4.070237381012563</v>
       </c>
       <c r="E17">
-        <v>6.238376001364951</v>
+        <v>6.242888636809203</v>
       </c>
       <c r="F17">
-        <v>25.66856634209146</v>
+        <v>24.4492957327668</v>
       </c>
       <c r="G17">
-        <v>32.27346832727928</v>
+        <v>30.35379393761071</v>
       </c>
       <c r="H17">
-        <v>6.404474847888044</v>
+        <v>6.324150751953608</v>
       </c>
       <c r="J17">
-        <v>11.44071942335021</v>
+        <v>11.00188931176191</v>
       </c>
       <c r="K17">
-        <v>18.01724612527772</v>
+        <v>16.93334759181821</v>
       </c>
       <c r="L17">
-        <v>5.862073001292972</v>
+        <v>13.00622105375083</v>
       </c>
       <c r="M17">
-        <v>12.52500202228915</v>
+        <v>12.01738270640311</v>
       </c>
       <c r="N17">
-        <v>5.6798372774121</v>
+        <v>5.842810090782859</v>
       </c>
       <c r="O17">
-        <v>9.910222608497197</v>
+        <v>12.47402548104842</v>
       </c>
       <c r="P17">
-        <v>13.87833432463509</v>
+        <v>5.929147014912624</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.783039272209242</v>
+      </c>
+      <c r="R17">
+        <v>13.61042661780722</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.06929973568552</v>
+        <v>14.51080676613669</v>
       </c>
       <c r="C18">
-        <v>7.629457708936408</v>
+        <v>7.908258026532391</v>
       </c>
       <c r="D18">
-        <v>3.989312882914653</v>
+        <v>4.181287407715915</v>
       </c>
       <c r="E18">
-        <v>6.306926303813297</v>
+        <v>6.304213107670492</v>
       </c>
       <c r="F18">
-        <v>26.40883130018178</v>
+        <v>25.15907438258055</v>
       </c>
       <c r="G18">
-        <v>33.35304267722824</v>
+        <v>31.23384528151202</v>
       </c>
       <c r="H18">
-        <v>5.306018536930886</v>
+        <v>5.206772512405604</v>
       </c>
       <c r="J18">
-        <v>11.65705039683157</v>
+        <v>11.25673956430813</v>
       </c>
       <c r="K18">
-        <v>18.44748957833883</v>
+        <v>17.32282797844739</v>
       </c>
       <c r="L18">
-        <v>5.809442441620966</v>
+        <v>13.31748966339748</v>
       </c>
       <c r="M18">
-        <v>12.48349149963184</v>
+        <v>12.29251136173078</v>
       </c>
       <c r="N18">
-        <v>5.93067927915282</v>
+        <v>5.77975088642401</v>
       </c>
       <c r="O18">
-        <v>10.18784812254204</v>
+        <v>12.43816922504693</v>
       </c>
       <c r="P18">
-        <v>13.97515017095473</v>
+        <v>6.192975547594337</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.05907878666761</v>
+      </c>
+      <c r="R18">
+        <v>13.68208711457774</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.30292726692656</v>
+        <v>14.70515325386612</v>
       </c>
       <c r="C19">
-        <v>7.486499955382212</v>
+        <v>7.807874040512078</v>
       </c>
       <c r="D19">
-        <v>4.155583516524928</v>
+        <v>4.357263366505372</v>
       </c>
       <c r="E19">
-        <v>6.504388340076392</v>
+        <v>6.488310507546332</v>
       </c>
       <c r="F19">
-        <v>27.40349227580715</v>
+        <v>26.07450153092616</v>
       </c>
       <c r="G19">
-        <v>34.80850413469607</v>
+        <v>32.51351113463964</v>
       </c>
       <c r="H19">
-        <v>4.085289457448751</v>
+        <v>3.960483978868198</v>
       </c>
       <c r="J19">
-        <v>11.92932370441295</v>
+        <v>11.51876720464699</v>
       </c>
       <c r="K19">
-        <v>18.99138174721282</v>
+        <v>17.79304327204452</v>
       </c>
       <c r="L19">
-        <v>5.797657682960639</v>
+        <v>13.68572020915507</v>
       </c>
       <c r="M19">
-        <v>12.57606249508608</v>
+        <v>12.64033226512941</v>
       </c>
       <c r="N19">
-        <v>6.303038042829179</v>
+        <v>5.752806589432166</v>
       </c>
       <c r="O19">
-        <v>10.60132516750926</v>
+        <v>12.52445782743123</v>
       </c>
       <c r="P19">
-        <v>14.07195234161315</v>
+        <v>6.57920059201745</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.46718546546952</v>
+      </c>
+      <c r="R19">
+        <v>13.74754401057336</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.00266158910284</v>
+        <v>15.31800280046857</v>
       </c>
       <c r="C20">
-        <v>7.44290183360209</v>
+        <v>7.833659610885306</v>
       </c>
       <c r="D20">
-        <v>4.46877063683689</v>
+        <v>4.702680221723133</v>
       </c>
       <c r="E20">
-        <v>7.017112949326846</v>
+        <v>6.977541500359759</v>
       </c>
       <c r="F20">
-        <v>29.06372067989139</v>
+        <v>27.5224639986603</v>
       </c>
       <c r="G20">
-        <v>37.24276867023141</v>
+        <v>34.83949086938143</v>
       </c>
       <c r="H20">
-        <v>2.955918354236968</v>
+        <v>2.814619175517993</v>
       </c>
       <c r="J20">
-        <v>12.34874288788129</v>
+        <v>11.78368411843114</v>
       </c>
       <c r="K20">
-        <v>19.83282368856024</v>
+        <v>18.46730194619503</v>
       </c>
       <c r="L20">
-        <v>5.890761804199823</v>
+        <v>14.17267779285983</v>
       </c>
       <c r="M20">
-        <v>13.03372008868668</v>
+        <v>13.19639848556687</v>
       </c>
       <c r="N20">
-        <v>6.977244789587712</v>
+        <v>5.818383296740827</v>
       </c>
       <c r="O20">
-        <v>11.36838524644435</v>
+        <v>12.94565304680535</v>
       </c>
       <c r="P20">
-        <v>14.15887939895617</v>
+        <v>7.270867295189257</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.21829622511746</v>
+      </c>
+      <c r="R20">
+        <v>13.78120391716715</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.93526094829162</v>
+        <v>16.12603099593136</v>
       </c>
       <c r="C21">
-        <v>7.824503511112897</v>
+        <v>8.149112565486842</v>
       </c>
       <c r="D21">
-        <v>4.663091066459745</v>
+        <v>4.997401199613901</v>
       </c>
       <c r="E21">
-        <v>7.207100791372831</v>
+        <v>7.176064401326626</v>
       </c>
       <c r="F21">
-        <v>29.71651679108335</v>
+        <v>27.71536027508309</v>
       </c>
       <c r="G21">
-        <v>38.22853760460415</v>
+        <v>37.04895761142591</v>
       </c>
       <c r="H21">
-        <v>2.648338671351528</v>
+        <v>2.548162452057622</v>
       </c>
       <c r="J21">
-        <v>12.43562579108131</v>
+        <v>11.02775067468543</v>
       </c>
       <c r="K21">
-        <v>19.98879639212196</v>
+        <v>18.34801810530588</v>
       </c>
       <c r="L21">
-        <v>5.954076635117281</v>
+        <v>13.95739558270304</v>
       </c>
       <c r="M21">
-        <v>13.837886669318</v>
+        <v>13.28269381187047</v>
       </c>
       <c r="N21">
-        <v>7.214408605343711</v>
+        <v>5.869945143143678</v>
       </c>
       <c r="O21">
-        <v>11.8393846343603</v>
+        <v>13.62110533874602</v>
       </c>
       <c r="P21">
-        <v>13.96098360415328</v>
+        <v>7.500264164036268</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.64874760577453</v>
+      </c>
+      <c r="R21">
+        <v>13.54911551189015</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.503170380698</v>
+        <v>16.62297283233823</v>
       </c>
       <c r="C22">
-        <v>8.072743793330487</v>
+        <v>8.34458667333559</v>
       </c>
       <c r="D22">
-        <v>4.774665193997177</v>
+        <v>5.178546073385362</v>
       </c>
       <c r="E22">
-        <v>7.302743297111629</v>
+        <v>7.28139618541857</v>
       </c>
       <c r="F22">
-        <v>30.07893788476886</v>
+        <v>27.76215488577063</v>
       </c>
       <c r="G22">
-        <v>38.77993872214934</v>
+        <v>38.51854139847078</v>
       </c>
       <c r="H22">
-        <v>2.463670665149172</v>
+        <v>2.389661532549363</v>
       </c>
       <c r="J22">
-        <v>12.47760716706791</v>
+        <v>10.51451554527532</v>
       </c>
       <c r="K22">
-        <v>20.05910859149292</v>
+        <v>18.22927281392208</v>
       </c>
       <c r="L22">
-        <v>5.988496517471192</v>
+        <v>13.78710829562321</v>
       </c>
       <c r="M22">
-        <v>14.33177314298519</v>
+        <v>13.31582955061361</v>
       </c>
       <c r="N22">
-        <v>7.335888083207884</v>
+        <v>5.898178277082999</v>
       </c>
       <c r="O22">
-        <v>12.11044784293308</v>
+        <v>14.02938359221948</v>
       </c>
       <c r="P22">
-        <v>13.82503095644488</v>
+        <v>7.61568650638213</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.89182851098827</v>
+      </c>
+      <c r="R22">
+        <v>13.39252459458213</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.20205068598619</v>
+        <v>16.36300017975558</v>
       </c>
       <c r="C23">
-        <v>7.941062563351153</v>
+        <v>8.258810779737392</v>
       </c>
       <c r="D23">
-        <v>4.715388022955489</v>
+        <v>5.071915254202951</v>
       </c>
       <c r="E23">
-        <v>7.251829826856588</v>
+        <v>7.221976465740651</v>
       </c>
       <c r="F23">
-        <v>29.88471883759891</v>
+        <v>27.7754373283429</v>
       </c>
       <c r="G23">
-        <v>38.48444435132794</v>
+        <v>37.56587384532214</v>
       </c>
       <c r="H23">
-        <v>2.561911057005171</v>
+        <v>2.472722130681852</v>
       </c>
       <c r="J23">
-        <v>12.45473414206253</v>
+        <v>10.86938906496009</v>
       </c>
       <c r="K23">
-        <v>20.0207752714368</v>
+        <v>18.31387518034938</v>
       </c>
       <c r="L23">
-        <v>5.970183013397258</v>
+        <v>13.89311820357407</v>
       </c>
       <c r="M23">
-        <v>14.07012600725723</v>
+        <v>13.31437915118124</v>
       </c>
       <c r="N23">
-        <v>7.271269307538672</v>
+        <v>5.883578049185558</v>
       </c>
       <c r="O23">
-        <v>11.96635936354627</v>
+        <v>13.8248132106388</v>
       </c>
       <c r="P23">
-        <v>13.89745683693197</v>
+        <v>7.555400449247804</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.76635669031389</v>
+      </c>
+      <c r="R23">
+        <v>13.47948443599439</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.01815311091411</v>
+        <v>15.33032817990565</v>
       </c>
       <c r="C24">
-        <v>7.424515521945304</v>
+        <v>7.819715747436527</v>
       </c>
       <c r="D24">
-        <v>4.485005696828033</v>
+        <v>4.719333530649175</v>
       </c>
       <c r="E24">
-        <v>7.056070722764315</v>
+        <v>7.015067796113238</v>
       </c>
       <c r="F24">
-        <v>29.16659014466725</v>
+        <v>27.61972689884524</v>
       </c>
       <c r="G24">
-        <v>37.39191535870625</v>
+        <v>34.96292559913992</v>
       </c>
       <c r="H24">
-        <v>2.941177354436186</v>
+        <v>2.799768548413741</v>
       </c>
       <c r="J24">
-        <v>12.37818993787478</v>
+        <v>11.8171285341498</v>
       </c>
       <c r="K24">
-        <v>19.89299337618683</v>
+        <v>18.52105361556938</v>
       </c>
       <c r="L24">
-        <v>5.899536107957178</v>
+        <v>14.21613193986656</v>
       </c>
       <c r="M24">
-        <v>13.03615169216588</v>
+        <v>13.23440418458047</v>
       </c>
       <c r="N24">
-        <v>7.02186897822568</v>
+        <v>5.825287670324307</v>
       </c>
       <c r="O24">
-        <v>11.40815509373433</v>
+        <v>12.94826690706567</v>
       </c>
       <c r="P24">
-        <v>14.17480406553102</v>
+        <v>7.316935450363232</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.25771847403713</v>
+      </c>
+      <c r="R24">
+        <v>13.79330417681255</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.64957316452172</v>
+        <v>14.03454671994272</v>
       </c>
       <c r="C25">
-        <v>6.829092608292944</v>
+        <v>7.094856270938732</v>
       </c>
       <c r="D25">
-        <v>4.224657109703495</v>
+        <v>4.438680767963109</v>
       </c>
       <c r="E25">
-        <v>6.838578148756921</v>
+        <v>6.819914580738495</v>
       </c>
       <c r="F25">
-        <v>28.43007381319331</v>
+        <v>27.05858351005293</v>
       </c>
       <c r="G25">
-        <v>36.27169792347242</v>
+        <v>34.01822267215782</v>
       </c>
       <c r="H25">
-        <v>3.366613724367128</v>
+        <v>3.183376872334044</v>
       </c>
       <c r="J25">
-        <v>12.31608638853822</v>
+        <v>11.81901770202721</v>
       </c>
       <c r="K25">
-        <v>19.7903285695201</v>
+        <v>18.53384681664048</v>
       </c>
       <c r="L25">
-        <v>5.820372537174102</v>
+        <v>14.39809648461497</v>
       </c>
       <c r="M25">
-        <v>11.82769352071614</v>
+        <v>13.0333534275809</v>
       </c>
       <c r="N25">
-        <v>6.743595333833063</v>
+        <v>5.754217056922012</v>
       </c>
       <c r="O25">
-        <v>10.78161766703551</v>
+        <v>11.78229351263603</v>
       </c>
       <c r="P25">
-        <v>14.48102189662255</v>
+        <v>7.039136237560559</v>
       </c>
       <c r="Q25">
+        <v>10.6431012729282</v>
+      </c>
+      <c r="R25">
+        <v>14.09760746031566</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
